--- a/job/templates/Erthmeter.xlsx
+++ b/job/templates/Erthmeter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\gcs\erthmeter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -203,7 +203,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A863044E-0CA4-416E-A679-61E6E29B5A08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A863044E-0CA4-416E-A679-61E6E29B5A08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -534,8 +534,8 @@
   </sheetPr>
   <dimension ref="C4:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,8 +745,8 @@
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
